--- a/File/标准器数据录入、标准器维护-20161020.xlsx
+++ b/File/标准器数据录入、标准器维护-20161020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据录入显示样式" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="195">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -965,10 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、基本信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1402,14 +1398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>准确度等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大允许误差：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1600,292 +1588,6 @@
   </si>
   <si>
     <t>标准详细3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    类别：</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DCV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=、</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=、</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DCI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=、</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=、</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DCR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2119,6 +1821,324 @@
   <si>
     <t>证书发放单位：</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择上一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间试品</t>
+  </si>
+  <si>
+    <t>（radiobutton）准确度等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（radiobutton）最大允许误差：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（radiobutton）不确定度:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    类别：</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DCV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=、</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=、</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=、</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=、</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DCR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCV:Urel=</t>
+  </si>
+  <si>
+    <t>we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10的负4次方</t>
+  </si>
+  <si>
+    <t>(k=3)</t>
   </si>
 </sst>
 </file>
@@ -2469,6 +2489,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2482,18 +2514,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2831,27 +2851,27 @@
       <selection activeCell="B26" sqref="B26:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="34.75" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2871,7 +2891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2891,17 +2911,17 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2921,17 +2941,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="41" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2941,11 +2961,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="38"/>
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2953,17 +2973,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -2983,72 +3003,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="37">
         <v>136561133</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="38">
         <v>42651</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3068,77 +3088,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="39" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="44"/>
+      <c r="F26" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>26</v>
       </c>
@@ -3172,12 +3192,12 @@
         <v>42367</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
@@ -3217,7 +3237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>31</v>
       </c>
@@ -3237,17 +3257,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -3287,12 +3307,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -3334,6 +3354,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="A26:A30"/>
@@ -3341,13 +3368,6 @@
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="E26:E30"/>
     <mergeCell ref="F26:F30"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3359,21 +3379,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="1" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
@@ -3385,7 +3405,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
@@ -3402,7 +3422,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3413,24 +3433,24 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>92</v>
@@ -3448,7 +3468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -3483,7 +3503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -3503,7 +3523,7 @@
         <v>91</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>80</v>
@@ -3518,7 +3538,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -3553,7 +3573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,7 +3608,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
@@ -3623,7 +3643,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
@@ -3658,7 +3678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -3693,7 +3713,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -3763,7 +3783,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3783,7 +3803,7 @@
         <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>80</v>
@@ -3798,7 +3818,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
@@ -3833,7 +3853,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3868,7 +3888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
@@ -3903,7 +3923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -3938,7 +3958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -3973,7 +3993,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -4043,7 +4063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -4078,7 +4098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -4113,7 +4133,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -4148,34 +4168,34 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4190,33 +4210,33 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4" s="21" t="s">
@@ -4232,32 +4252,28 @@
       </c>
       <c r="K4" s="1"/>
       <c r="M4" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="O4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
-      <c r="D6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -4267,7 +4283,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -4281,7 +4297,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4289,9 +4305,9 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -4299,7 +4315,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>114</v>
       </c>
@@ -4315,21 +4331,21 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4339,9 +4355,9 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -4351,29 +4367,37 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14" t="s">
@@ -4383,13 +4407,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -4399,30 +4423,30 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="1"/>
       <c r="H20" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="1"/>
       <c r="K20" s="14" t="s">
@@ -4432,105 +4456,105 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="8" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4568,17 +4592,17 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4594,7 +4618,7 @@
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -4610,9 +4634,9 @@
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -4628,9 +4652,9 @@
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>91</v>
@@ -4658,13 +4682,13 @@
       </c>
       <c r="L4" s="24"/>
       <c r="M4" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N4" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -4680,9 +4704,9 @@
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -4698,9 +4722,9 @@
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -4716,9 +4740,9 @@
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -4734,9 +4758,9 @@
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -4752,7 +4776,7 @@
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -4768,17 +4792,17 @@
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -4790,13 +4814,13 @@
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="33">
@@ -4812,13 +4836,13 @@
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="33">
@@ -4834,7 +4858,7 @@
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -4850,15 +4874,15 @@
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="C15" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="D15" s="33">
         <v>42656</v>
@@ -4874,7 +4898,7 @@
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -4890,9 +4914,9 @@
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -4908,7 +4932,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -4924,9 +4948,9 @@
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -4942,9 +4966,9 @@
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>75</v>
@@ -4972,13 +4996,13 @@
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -4994,9 +5018,9 @@
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -5012,9 +5036,9 @@
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -5030,9 +5054,9 @@
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -5048,9 +5072,9 @@
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -5066,17 +5090,17 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -5088,13 +5112,13 @@
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="33">
@@ -5110,7 +5134,7 @@
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -5126,15 +5150,15 @@
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="C30" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="D30" s="33">
         <v>42656</v>
@@ -5150,9 +5174,9 @@
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -5168,7 +5192,7 @@
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -5184,9 +5208,9 @@
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -5202,9 +5226,9 @@
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>75</v>
@@ -5232,13 +5256,13 @@
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N37" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
@@ -5254,9 +5278,9 @@
       <c r="M38" s="24"/>
       <c r="N38" s="24"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -5272,9 +5296,9 @@
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
@@ -5290,9 +5314,9 @@
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
     </row>
-    <row r="41" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="A41" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -5308,9 +5332,9 @@
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
     </row>
-    <row r="42" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="A42" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -5326,9 +5350,9 @@
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -5344,7 +5368,7 @@
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -5360,17 +5384,17 @@
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
@@ -5382,13 +5406,13 @@
       <c r="M45" s="24"/>
       <c r="N45" s="24"/>
     </row>
-    <row r="46" spans="1:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="35">
@@ -5404,7 +5428,7 @@
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="33"/>
@@ -5420,7 +5444,7 @@
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
@@ -5436,15 +5460,15 @@
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>142</v>
       </c>
       <c r="D49" s="33">
         <v>42656</v>
